--- a/biology/Botanique/Aechmea_zebrina/Aechmea_zebrina.xlsx
+++ b/biology/Botanique/Aechmea_zebrina/Aechmea_zebrina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aechmea zebrina est une espèce de plantes de la famille des Bromeliaceae qui se rencontre de la Colombie à l'Équateur.
 </t>
@@ -511,9 +523,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Platyaechmea zebrina (L.B.Sm.) L.B.Sm. &amp; W.J.Kress[1],[2].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Platyaechmea zebrina (L.B.Sm.) L.B.Sm. &amp; W.J.Kress,.</t>
         </is>
       </c>
     </row>
@@ -541,7 +555,9 @@
           <t>Variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Aechmea zebrina 'pink'</t>
         </is>
@@ -571,9 +587,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce se rencontre du sud de la Colombie à l'Équateur[3],[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce se rencontre du sud de la Colombie à l'Équateur,.
 </t>
         </is>
       </c>
@@ -602,9 +620,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est épiphyte[3] et peut atteindre jusqu'à 90 centimètres de hauteur[5] Elle présente un feuillage vert sombre barré de bandes grises ou argentées sur le dessous des feuilles. L'inflorescence est de couleur jaune à orange[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est épiphyte et peut atteindre jusqu'à 90 centimètres de hauteur Elle présente un feuillage vert sombre barré de bandes grises ou argentées sur le dessous des feuilles. L'inflorescence est de couleur jaune à orange.
 </t>
         </is>
       </c>
